--- a/Code/SampleRun_Environment_Solar/600Scens/600_Naive_CI.xlsx
+++ b/Code/SampleRun_Environment_Solar/600Scens/600_Naive_CI.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\A_Uni\HiWi\ArticleSubgradient\Code\SampleRun_Environment_Solar\600Scens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C4CD71F-DC55-449D-80FD-3D5DAC568549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F37CEB-6BAF-47B8-9DD5-A61C1502F135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,7 +443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView topLeftCell="A466" workbookViewId="0">
@@ -8886,11 +8886,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="J14" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9468,8 +9468,8 @@
         <v>9</v>
       </c>
       <c r="M19" s="2">
-        <f>AVERAGE(D42:D45,D47:D57,D59:D61)</f>
-        <v>0.15813833333333335</v>
+        <f>AVERAGE(D42:D61)</f>
+        <v>0.15631750000000003</v>
       </c>
       <c r="O19" t="s">
         <v>10</v>
@@ -9514,11 +9514,11 @@
       </c>
       <c r="P20">
         <f>M19-1.96*M23/(SQRT(20))</f>
-        <v>0.15003810978770749</v>
+        <v>0.14825814839457305</v>
       </c>
       <c r="Q20">
         <f>M19+1.96*M23/(SQRT(20))</f>
-        <v>0.16623855687895922</v>
+        <v>0.164376851605427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -9605,8 +9605,8 @@
         <v>12</v>
       </c>
       <c r="M23">
-        <f>_xlfn.STDEV.P(D42:D45,D47:D57,D59:D61)</f>
-        <v>1.8482296409146726E-2</v>
+        <f>_xlfn.STDEV.P(D42:D61)</f>
+        <v>1.8389038820721203E-2</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">

--- a/Code/SampleRun_Environment_Solar/600Scens/600_Naive_CI.xlsx
+++ b/Code/SampleRun_Environment_Solar/600Scens/600_Naive_CI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\A_Uni\HiWi\ArticleSubgradient\Code\SampleRun_Environment_Solar\600Scens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F37CEB-6BAF-47B8-9DD5-A61C1502F135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3318F348-1D83-445D-A839-769E1B01A56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,6 +145,1250 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0.01</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>246.57187999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>252.31788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>241.72673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>248.41552999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244.96548000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>242.33189999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>247.05856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>244.36434</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>226.78341</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>242.86644000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>243.84789000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>246.25400999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>242.58036999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>242.59375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>237.65900999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>243.28272000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>249.03632999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>243.27918</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>247.50851</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>251.81213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E4B8-476B-A1DF-C956C8A6945D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>0.03</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="24130" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$E$22:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>232.13278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>251.53009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.60290000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>248.46988999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244.57126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240.90254999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>247.90880000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>244.49700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>226.90988999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>242.15585999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>244.10871</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>245.49118999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>242.52088000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>241.27199999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>236.15630999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>243.37649999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>247.95142000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>241.87454</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>234.69932</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>243.59105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E4B8-476B-A1DF-C956C8A6945D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>0.05</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22860" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$E$42:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>232.29670999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>251.70405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243.69188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>245.28541000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244.30515</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240.90186</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>247.34291999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>248.4933</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>226.73808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>242.36433</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>243.53668999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>245.39230000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>242.28900999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>237.57219000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>235.30489</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>242.20921000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>248.03596999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>241.14474999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>236.88746</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>243.64015000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E4B8-476B-A1DF-C956C8A6945D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>0.07</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$E$62:$E$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>246.97856999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>252.13225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.16369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>245.78738999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>242.63132999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>242.97719000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>247.00099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>244.70248000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>226.67839000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>242.35542000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>241.16963999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>245.03030000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>242.70593</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>239.19291000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240.72725</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>243.13899000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>247.89068</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>241.14474999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>234.94042999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>243.74502000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E4B8-476B-A1DF-C956C8A6945D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="734219999"/>
+        <c:axId val="734219167"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="734219999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="734219167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="734219167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="734219999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>187325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB664B4-2815-7CCF-6A17-C7C5057C719F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8889,8 +10133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J14" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10865,5 +12109,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Code/SampleRun_Environment_Solar/600Scens/600_Naive_CI.xlsx
+++ b/Code/SampleRun_Environment_Solar/600Scens/600_Naive_CI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\A_Uni\HiWi\ArticleSubgradient\Code\SampleRun_Environment_Solar\600Scens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3318F348-1D83-445D-A839-769E1B01A56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100D5FD8-6C3B-4991-B414-6876BE31AC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
   <si>
     <t>Instance</t>
   </si>
@@ -82,12 +82,15 @@
   <si>
     <t>Time:</t>
   </si>
+  <si>
+    <t>t dist 95%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +100,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -121,17 +131,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -163,7 +177,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10271515340510429"/>
+          <c:y val="5.5788005578800558E-2"/>
+          <c:w val="0.85768088619885607"/>
+          <c:h val="0.59582424581864502"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1355,15 +1379,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>187325</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10131,15 +10155,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="20" max="20" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10161,8 +10188,11 @@
       <c r="L1" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10194,8 +10224,14 @@
       <c r="Q2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
@@ -10232,8 +10268,19 @@
         <f>M2+1.96*M6/(SQRT(20))</f>
         <v>246.57988743271395</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <f>M2+(-$H$10)*M6/(SQRT(20))</f>
+        <v>241.78845836720544</v>
+      </c>
+      <c r="U3">
+        <f>M2+$H$10*M6/(SQRT(20))</f>
+        <v>246.73714663279455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>11</v>
       </c>
@@ -10270,8 +10317,19 @@
         <f>M3+1.96*M7/(SQRT(20))</f>
         <v>8.2949241181094299E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4">
+        <f>M3+(-$H$10)*M7/(SQRT(20))</f>
+        <v>6.5609657400997196E-2</v>
+      </c>
+      <c r="U4">
+        <f>M3+$H$10*M7/(SQRT(20))</f>
+        <v>8.3518342599002815E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>12</v>
       </c>
@@ -10304,8 +10362,19 @@
         <f>M4+1.96*M8/(SQRT(20))</f>
         <v>4242.1631445288958</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5">
+        <f>M4+(-$H$10)*M8/(SQRT(20))</f>
+        <v>4237.7934375870309</v>
+      </c>
+      <c r="U5">
+        <f>M4+$H$10*M8/(SQRT(20))</f>
+        <v>4242.3065624129695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>13</v>
       </c>
@@ -10332,7 +10401,7 @@
         <v>5.2868973665193026</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>14</v>
       </c>
@@ -10359,7 +10428,7 @@
         <v>1.9132621723119872E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>15</v>
       </c>
@@ -10386,7 +10455,7 @@
         <v>4.8215661356036588</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>16</v>
       </c>
@@ -10409,7 +10478,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>17</v>
       </c>
@@ -10427,6 +10496,13 @@
       </c>
       <c r="F10">
         <v>4238</v>
+      </c>
+      <c r="H10">
+        <f>_xlfn.T.INV(0.975,19)</f>
+        <v>2.0930240544083087</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.95</v>
       </c>
       <c r="L10" t="s">
         <v>6</v>
@@ -10442,7 +10518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>18</v>
       </c>
@@ -10460,6 +10536,13 @@
       </c>
       <c r="F11">
         <v>4237</v>
+      </c>
+      <c r="H11">
+        <f>_xlfn.T.INV(0.9875,19)</f>
+        <v>2.4334402113749714</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.97499999999999998</v>
       </c>
       <c r="L11" t="s">
         <v>9</v>
@@ -10479,8 +10562,19 @@
         <f>M10+1.96*M14/(SQRT(20))</f>
         <v>244.63751640688383</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <f>M10+(-$H$10)*M14/(SQRT(20))</f>
+        <v>239.46501111348522</v>
+      </c>
+      <c r="U11">
+        <f>M10+$H$10*M14/(SQRT(20))</f>
+        <v>244.80728288651477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>19</v>
       </c>
@@ -10517,8 +10611,19 @@
         <f>M11+1.96*M15/(SQRT(20))</f>
         <v>0.13606528252876643</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12">
+        <f>M11+(-$H$10)*M15/(SQRT(20))</f>
+        <v>0.11918261238791139</v>
+      </c>
+      <c r="U12">
+        <f>M11+$H$10*M15/(SQRT(20))</f>
+        <v>0.13661938761208858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -10551,8 +10656,19 @@
         <f>M12+1.96*M16/(SQRT(20))</f>
         <v>4239.5169155789581</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S13" t="s">
+        <v>14</v>
+      </c>
+      <c r="T13">
+        <f>M12+(-$H$10)*M16/(SQRT(20))</f>
+        <v>4236.6903126596399</v>
+      </c>
+      <c r="U13">
+        <f>M12+$H$10*M16/(SQRT(20))</f>
+        <v>4239.6096873403594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>20</v>
       </c>
@@ -10579,7 +10695,7 @@
         <v>5.7073796230924607</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3</v>
       </c>
@@ -10606,7 +10722,7 @@
         <v>1.8628459920240446E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4</v>
       </c>
@@ -10633,7 +10749,7 @@
         <v>3.1188940347501393</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>5</v>
       </c>
@@ -10656,7 +10772,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6</v>
       </c>
@@ -10689,7 +10805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>7</v>
       </c>
@@ -10726,8 +10842,19 @@
         <f>M18+1.96*M22/(SQRT(20))</f>
         <v>244.46808105848552</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S19" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19">
+        <f>M18+(-$H$10)*M22/(SQRT(20))</f>
+        <v>239.27511181585851</v>
+      </c>
+      <c r="U19">
+        <f>M18+$H$10*M22/(SQRT(20))</f>
+        <v>244.6385191841415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>8</v>
       </c>
@@ -10764,8 +10891,19 @@
         <f>M19+1.96*M23/(SQRT(20))</f>
         <v>0.164376851605427</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S20" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" s="3">
+        <f>M19+(-$H$10)*M23/(SQRT(20))</f>
+        <v>0.14771116491168734</v>
+      </c>
+      <c r="U20" s="3">
+        <f>M19+$H$10*M23/(SQRT(20))</f>
+        <v>0.16492383508831271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>9</v>
       </c>
@@ -10798,8 +10936,19 @@
         <f>M20+1.96*M24/(SQRT(20))</f>
         <v>4240.7792621421895</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S21" t="s">
+        <v>14</v>
+      </c>
+      <c r="T21">
+        <f>M20+(-$H$10)*M24/(SQRT(20))</f>
+        <v>4238.3407020254826</v>
+      </c>
+      <c r="U21">
+        <f>M20+$H$10*M24/(SQRT(20))</f>
+        <v>4240.8592979745181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -10826,7 +10975,7 @@
         <v>5.7299596921710325</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>10</v>
       </c>
@@ -10853,7 +11002,7 @@
         <v>1.8389038820721203E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>11</v>
       </c>
@@ -10880,7 +11029,7 @@
         <v>2.6907248094147422</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>12</v>
       </c>
@@ -10903,7 +11052,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>13</v>
       </c>
@@ -10936,7 +11085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>14</v>
       </c>
@@ -10973,8 +11122,19 @@
         <f>M26+1.96*M30/(SQRT(20))</f>
         <v>244.87059450622058</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S27" t="s">
+        <v>10</v>
+      </c>
+      <c r="T27">
+        <f>M26+(-$H$10)*M30/(SQRT(20))</f>
+        <v>240.28837267141228</v>
+      </c>
+      <c r="U27">
+        <f>M26+$H$10*M30/(SQRT(20))</f>
+        <v>245.02098732858775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>15</v>
       </c>
@@ -11011,8 +11171,19 @@
         <f>M27+1.96*M31/(SQRT(20))</f>
         <v>0.17892060115070763</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T28">
+        <f>M27+(-$H$10)*M31/(SQRT(20))</f>
+        <v>0.16432346503298517</v>
+      </c>
+      <c r="U28">
+        <f>M27+$H$10*M31/(SQRT(20))</f>
+        <v>0.17939969286175173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>16</v>
       </c>
@@ -11045,8 +11216,19 @@
         <f>M28+1.96*M32/(SQRT(20))</f>
         <v>4242.4277409335846</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S29" t="s">
+        <v>14</v>
+      </c>
+      <c r="T29">
+        <f>M28+(-$H$10)*M32/(SQRT(20))</f>
+        <v>4239.8889330068496</v>
+      </c>
+      <c r="U29">
+        <f>M28+$H$10*M32/(SQRT(20))</f>
+        <v>4242.5110669931501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>17</v>
       </c>
@@ -11073,7 +11255,7 @@
         <v>5.0560566002419307</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>18</v>
       </c>
@@ -11100,7 +11282,7 @@
         <v>1.610658520545585E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>19</v>
       </c>
